--- a/数据整理/stocks/港股/06160-百济神州.xlsx
+++ b/数据整理/stocks/港股/06160-百济神州.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.04</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.24</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.04</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.92</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.24</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.92</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06160-百济神州.xlsx
+++ b/数据整理/stocks/港股/06160-百济神州.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06160-百济神州.xlsx
+++ b/数据整理/stocks/港股/06160-百济神州.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,512 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3614</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06160-百济神州.xlsx
+++ b/数据整理/stocks/港股/06160-百济神州.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1463,4 +1464,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06160-百济神州.xlsx
+++ b/数据整理/stocks/港股/06160-百济神州.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1472,7 +1473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1483,17 +1484,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1503,14 +1524,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.17</v>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1519,14 +1562,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.03</v>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1535,14 +1600,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1551,13 +1638,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06160-百济神州.xlsx
+++ b/数据整理/stocks/港股/06160-百济神州.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1833,7 +1834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1844,17 +1845,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1864,14 +1885,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.4</v>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1880,14 +1923,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.17</v>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1896,14 +1961,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.03</v>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1912,14 +1999,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06</v>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1928,13 +2037,623 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>100.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06160-百济神州.xlsx
+++ b/数据整理/stocks/港股/06160-百济神州.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2536,7 +2537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2547,17 +2548,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2567,14 +2588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.66</v>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4566</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2583,14 +2626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.4</v>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2599,14 +2664,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.17</v>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2615,14 +2702,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.03</v>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2631,14 +2740,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.06</v>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2647,13 +2778,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06160-百济神州.xlsx
+++ b/数据整理/stocks/港股/06160-百济神州.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>1.8</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>2.17</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>1.03</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -600,6 +617,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6171</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159636</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信国证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513120</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证香港创新药（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513150</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513200</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159776</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>517990</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证沪港深500医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +2096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1813,7 +2798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2173,7 +3158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2681,7 +3666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2927,7 +3912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3059,7 +4044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/06160-百济神州.xlsx
+++ b/数据整理/stocks/港股/06160-百济神州.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>2.74</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>1.8</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>2.17</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.03</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -616,7 +633,1449 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159636</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信国证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4968</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4414</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证香港创新药（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513200</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513150</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159776</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012111</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华安颐混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>517990</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证沪港深500医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012112</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华安颐混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>016921</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1584,7 +3043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2096,7 +3555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2798,7 +4257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3158,7 +4617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3666,7 +5125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3912,7 +5371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4042,136 +5501,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006786</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006787</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>